--- a/Projet4/Modèle-audit-SEO.xlsx
+++ b/Projet4/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diama\Documents\OPENCLASSROOM\MesProjets\MesProjet\Projet4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0AC7C0-4153-47B7-ADD1-A463EBA6B566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DA6615-BD2B-4538-BC76-B5B1F6998B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
   <si>
     <t>Catégorie</t>
   </si>
@@ -205,13 +205,128 @@
     <t>Ecrire "La chouette agence"</t>
   </si>
   <si>
+    <t>Image mise à la place d'une balise &lt;p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Changer les images en format texte. </t>
+  </si>
+  <si>
+    <t>Les textes et citations doivent être implanté dans le code avec une balise &lt;p&gt; et &lt;quote&gt; et n'ont une image.</t>
+  </si>
+  <si>
     <t>Il est important de passer le site au format téléphone lors du changement des mediaqueris</t>
   </si>
   <si>
     <t>Améliorer les mediaqueris</t>
   </si>
   <si>
+    <t>Répétition de code Css</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reprise plusieurs fois de class pour attribué que une couleur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Noms des Class et Id trop long </t>
+  </si>
+  <si>
     <t>Il est conseillé de sauter des lignes afin d'aérer le code, ne pas utiliser unitilement des class, utiliser des sections et moins de div</t>
+  </si>
+  <si>
+    <t>Dans une div, utilisation de Id et de class</t>
+  </si>
+  <si>
+    <t>Utiliser un seul point d'encrage, si la balise ne sert pas pour naviguer dans le site utiliser plutôt des class</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;div </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t xml:space="preserve">="bloc bgc-white bg-lines-h2-bg bg-repeat l-bloc" </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>id</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>="bloc-4-portfolio"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>&lt;div class="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>bloc bgc-white bg-lines-h2-bg bg-repeat l-bloc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>" id="</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>bloc-4-portfolio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Roboto"/>
+      </rPr>
+      <t>"&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Il est préférable de mettre un nom court et facile a réutiliser </t>
+  </si>
+  <si>
+    <t>Renommé le nom des Class et Id</t>
+  </si>
+  <si>
+    <t>Changer les points d'encrage selon besoin</t>
+  </si>
+  <si>
+    <t>&lt;!-- bloc-0 END --&gt; &lt;!-- bloc-6 --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les commentaires ne sont pas accès précis, le code Css ne contient aucun commentaire </t>
+  </si>
+  <si>
+    <t>Il est important de commenter ses feuilles de code Html et Css,indiquer le nom que représente le bloc de code qui suit ajouter "début" au commencement et "fin" à la fin.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revoir les commentaires du code </t>
   </si>
   <si>
     <t xml:space="preserve">Les couleurs du site rend difficile la lecture des élements </t>
@@ -253,6 +368,9 @@
     <t xml:space="preserve">Sur la page contact, le menu de navigation est inaccessible </t>
   </si>
   <si>
+    <t>La descripton du site devrait être en texte pour une meilleur Seo et facilité les mediaqueris</t>
+  </si>
+  <si>
     <t>Manque d'accessibilité et impossible de naviguer dans le menu car il est rongé</t>
   </si>
   <si>
@@ -268,113 +386,17 @@
     <t>Le code est surcharger, utilisation excessif de div, encrage de certaine div inutile. Class sur chaque balise. Absence de certaine balise sémantique.</t>
   </si>
   <si>
-    <t>le code n'est pas minifier</t>
-  </si>
-  <si>
-    <t>Fichier non minifier</t>
-  </si>
-  <si>
-    <t>minifier le code pour un gain de performance</t>
-  </si>
-  <si>
-    <t>Minifier le code</t>
-  </si>
-  <si>
-    <t>Taille image supérieur à leur bloc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les images sont parfois plus grande que leur contenant </t>
-  </si>
-  <si>
-    <t>Ajuster la taille des images</t>
-  </si>
-  <si>
-    <t>Ajuster la taille des images par rapport à leur contenant</t>
-  </si>
-  <si>
-    <t>&lt;meta name="keywords" content="seo, google, site web, site internet, agence design paris, agence design, agence design,agence design,agence design,agence design,agence design,agence design,agence design,agence design"&gt;</t>
-  </si>
-  <si>
-    <t>Utiliser la balise meta description</t>
-  </si>
-  <si>
-    <t>Supprimer la meta keywords</t>
-  </si>
-  <si>
-    <t>https://optimiz.me/la-balise-meta-keywords/</t>
-  </si>
-  <si>
-    <t>&lt;meta name="description"&gt;</t>
-  </si>
-  <si>
-    <t>Balise &lt;meta description&gt; vide</t>
-  </si>
-  <si>
-    <t>Indiquer une description</t>
-  </si>
-  <si>
-    <t>&lt;meta name="description" content="La chouette agence, Site web d'une entreprise de webdesign à Lyon,"/&gt;</t>
-  </si>
-  <si>
-    <t>https://web.dev/meta-description/</t>
-  </si>
-  <si>
-    <t>&lt;H3&gt;</t>
-  </si>
-  <si>
-    <t>Ordre descendant des titres non respecté</t>
-  </si>
-  <si>
-    <t>Mettre les titres dans un ordre descedant H1 &gt; H2 &gt; H3</t>
-  </si>
-  <si>
-    <t>Remplacement H3 par H2</t>
-  </si>
-  <si>
-    <t>https://web.dev/heading-order/</t>
-  </si>
-  <si>
-    <t>https://developers.google.com/search/docs/beginner/seo-starter-guide?hl=fr&amp;visit_id=637647371625020069-929788033&amp;rd=1#accurately-describe-the-pages-content</t>
-  </si>
-  <si>
-    <t>https://www.woorank.com/en/edu/seo-guides/best-practices-for-language-declaration</t>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist</t>
-  </si>
-  <si>
-    <t>Meta keyword n'as plus d'utilité</t>
-  </si>
-  <si>
-    <t>https://doingenia.com/blog/site-responsive-et-seo/</t>
-  </si>
-  <si>
-    <t>Utilisation d'images anormale</t>
-  </si>
-  <si>
-    <t>Des images sont utilisées à la place de texte</t>
-  </si>
-  <si>
-    <t>Utiliser en priorité du texte lorsque cela est possible</t>
-  </si>
-  <si>
-    <t>Remplacer les images par du texte</t>
-  </si>
-  <si>
-    <t>https://developer.mozilla.org/fr/docs/Learn/Accessibility/HTML</t>
-  </si>
-  <si>
-    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055231-allegez-les-pages-de-votre-site#/id/r-6055854</t>
-  </si>
-  <si>
-    <t>https://web.dev/uses-responsive-images/</t>
+    <t>Revoir la manière de faire appel a une balise du html pour en modifier son Css</t>
+  </si>
+  <si>
+    <t>Relire le code et supprimer les répétitions dans le code Css</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -442,19 +464,8 @@
       <color rgb="FFFF0000"/>
       <name val="Roboto"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Roboto"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -470,24 +481,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -512,13 +505,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -531,27 +525,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -768,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -828,320 +813,265 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:26" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>67</v>
-      </c>
     </row>
-    <row r="4" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="98.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="9"/>
+    </row>
+    <row r="16" spans="1:26" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>68</v>
+      <c r="D17" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="12"/>
-    </row>
-    <row r="8" spans="1:26" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="12"/>
-    </row>
-    <row r="15" spans="1:26" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2108,24 +2038,14 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F15" r:id="rId1" xr:uid="{16C4436A-94BC-4C38-B9B4-B7B82F3FAEC2}"/>
-    <hyperlink ref="F13" r:id="rId2" xr:uid="{32E9D56D-7C4A-461B-9003-BFAB73C9D675}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{6A3696EF-6485-465E-9DA3-5A81009A09F1}"/>
-    <hyperlink ref="F11" r:id="rId4" xr:uid="{2DA9CC9C-BB4E-4266-89A9-95B843D76018}"/>
-    <hyperlink ref="F12" r:id="rId5" xr:uid="{844C6A54-479A-4500-9350-E5079C850B2A}"/>
-    <hyperlink ref="F8" r:id="rId6" location="accurately-describe-the-pages-content" xr:uid="{3B67C493-9A23-472A-A2EE-FA4D163FA839}"/>
-    <hyperlink ref="F5" r:id="rId7" xr:uid="{8B32B5DC-B02B-44BC-A6FC-DF9D74A64D4F}"/>
-    <hyperlink ref="F6" r:id="rId8" xr:uid="{7B87C334-3468-4AD7-A520-6C5FE5C27C97}"/>
-    <hyperlink ref="F16" r:id="rId9" location="/id/r-6055854" xr:uid="{63D0DA0F-FEC3-41A1-A653-6EDE0BF71B1E}"/>
-    <hyperlink ref="F17" r:id="rId10" xr:uid="{E59E8E86-4AE8-40B3-AA1D-CB38598AC06F}"/>
-    <hyperlink ref="F18" r:id="rId11" xr:uid="{A5E74F42-6292-41EF-81E3-FCA0CDA2D1F5}"/>
-    <hyperlink ref="F4" r:id="rId12" xr:uid="{9CFB1D16-63D4-48C3-8C40-FECE9BF5A4DD}"/>
-    <hyperlink ref="F9" r:id="rId13" location="accurately-describe-the-pages-content" xr:uid="{315997CE-2D88-4602-8C28-2E9C2410E788}"/>
-    <hyperlink ref="F10" r:id="rId14" xr:uid="{86F89524-3B2A-4029-A11F-5B60E913F772}"/>
+    <hyperlink ref="F16" r:id="rId1" xr:uid="{16C4436A-94BC-4C38-B9B4-B7B82F3FAEC2}"/>
+    <hyperlink ref="F14" r:id="rId2" xr:uid="{32E9D56D-7C4A-461B-9003-BFAB73C9D675}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId15"/>
+  <pageSetup orientation="landscape" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Projet4/Modèle-audit-SEO.xlsx
+++ b/Projet4/Modèle-audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diama\Documents\OPENCLASSROOM\MesProjets\MesProjet\Projet4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DA6615-BD2B-4538-BC76-B5B1F6998B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0AC7C0-4153-47B7-ADD1-A463EBA6B566}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
     <t>Catégorie</t>
   </si>
@@ -205,128 +205,13 @@
     <t>Ecrire "La chouette agence"</t>
   </si>
   <si>
-    <t>Image mise à la place d'une balise &lt;p&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Changer les images en format texte. </t>
-  </si>
-  <si>
-    <t>Les textes et citations doivent être implanté dans le code avec une balise &lt;p&gt; et &lt;quote&gt; et n'ont une image.</t>
-  </si>
-  <si>
     <t>Il est important de passer le site au format téléphone lors du changement des mediaqueris</t>
   </si>
   <si>
     <t>Améliorer les mediaqueris</t>
   </si>
   <si>
-    <t>Répétition de code Css</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reprise plusieurs fois de class pour attribué que une couleur </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Noms des Class et Id trop long </t>
-  </si>
-  <si>
     <t>Il est conseillé de sauter des lignes afin d'aérer le code, ne pas utiliser unitilement des class, utiliser des sections et moins de div</t>
-  </si>
-  <si>
-    <t>Dans une div, utilisation de Id et de class</t>
-  </si>
-  <si>
-    <t>Utiliser un seul point d'encrage, si la balise ne sert pas pour naviguer dans le site utiliser plutôt des class</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;div </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t xml:space="preserve">="bloc bgc-white bg-lines-h2-bg bg-repeat l-bloc" </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>="bloc-4-portfolio"&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>&lt;div class="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>bloc bgc-white bg-lines-h2-bg bg-repeat l-bloc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>" id="</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>bloc-4-portfolio</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Roboto"/>
-      </rPr>
-      <t>"&gt;</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Il est préférable de mettre un nom court et facile a réutiliser </t>
-  </si>
-  <si>
-    <t>Renommé le nom des Class et Id</t>
-  </si>
-  <si>
-    <t>Changer les points d'encrage selon besoin</t>
-  </si>
-  <si>
-    <t>&lt;!-- bloc-0 END --&gt; &lt;!-- bloc-6 --&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Les commentaires ne sont pas accès précis, le code Css ne contient aucun commentaire </t>
-  </si>
-  <si>
-    <t>Il est important de commenter ses feuilles de code Html et Css,indiquer le nom que représente le bloc de code qui suit ajouter "début" au commencement et "fin" à la fin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Revoir les commentaires du code </t>
   </si>
   <si>
     <t xml:space="preserve">Les couleurs du site rend difficile la lecture des élements </t>
@@ -368,9 +253,6 @@
     <t xml:space="preserve">Sur la page contact, le menu de navigation est inaccessible </t>
   </si>
   <si>
-    <t>La descripton du site devrait être en texte pour une meilleur Seo et facilité les mediaqueris</t>
-  </si>
-  <si>
     <t>Manque d'accessibilité et impossible de naviguer dans le menu car il est rongé</t>
   </si>
   <si>
@@ -386,17 +268,113 @@
     <t>Le code est surcharger, utilisation excessif de div, encrage de certaine div inutile. Class sur chaque balise. Absence de certaine balise sémantique.</t>
   </si>
   <si>
-    <t>Revoir la manière de faire appel a une balise du html pour en modifier son Css</t>
-  </si>
-  <si>
-    <t>Relire le code et supprimer les répétitions dans le code Css</t>
+    <t>le code n'est pas minifier</t>
+  </si>
+  <si>
+    <t>Fichier non minifier</t>
+  </si>
+  <si>
+    <t>minifier le code pour un gain de performance</t>
+  </si>
+  <si>
+    <t>Minifier le code</t>
+  </si>
+  <si>
+    <t>Taille image supérieur à leur bloc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Les images sont parfois plus grande que leur contenant </t>
+  </si>
+  <si>
+    <t>Ajuster la taille des images</t>
+  </si>
+  <si>
+    <t>Ajuster la taille des images par rapport à leur contenant</t>
+  </si>
+  <si>
+    <t>&lt;meta name="keywords" content="seo, google, site web, site internet, agence design paris, agence design, agence design,agence design,agence design,agence design,agence design,agence design,agence design,agence design"&gt;</t>
+  </si>
+  <si>
+    <t>Utiliser la balise meta description</t>
+  </si>
+  <si>
+    <t>Supprimer la meta keywords</t>
+  </si>
+  <si>
+    <t>https://optimiz.me/la-balise-meta-keywords/</t>
+  </si>
+  <si>
+    <t>&lt;meta name="description"&gt;</t>
+  </si>
+  <si>
+    <t>Balise &lt;meta description&gt; vide</t>
+  </si>
+  <si>
+    <t>Indiquer une description</t>
+  </si>
+  <si>
+    <t>&lt;meta name="description" content="La chouette agence, Site web d'une entreprise de webdesign à Lyon,"/&gt;</t>
+  </si>
+  <si>
+    <t>https://web.dev/meta-description/</t>
+  </si>
+  <si>
+    <t>&lt;H3&gt;</t>
+  </si>
+  <si>
+    <t>Ordre descendant des titres non respecté</t>
+  </si>
+  <si>
+    <t>Mettre les titres dans un ordre descedant H1 &gt; H2 &gt; H3</t>
+  </si>
+  <si>
+    <t>Remplacement H3 par H2</t>
+  </si>
+  <si>
+    <t>https://web.dev/heading-order/</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/search/docs/beginner/seo-starter-guide?hl=fr&amp;visit_id=637647371625020069-929788033&amp;rd=1#accurately-describe-the-pages-content</t>
+  </si>
+  <si>
+    <t>https://www.woorank.com/en/edu/seo-guides/best-practices-for-language-declaration</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/Mobile_accessibility_checklist</t>
+  </si>
+  <si>
+    <t>Meta keyword n'as plus d'utilité</t>
+  </si>
+  <si>
+    <t>https://doingenia.com/blog/site-responsive-et-seo/</t>
+  </si>
+  <si>
+    <t>Utilisation d'images anormale</t>
+  </si>
+  <si>
+    <t>Des images sont utilisées à la place de texte</t>
+  </si>
+  <si>
+    <t>Utiliser en priorité du texte lorsque cela est possible</t>
+  </si>
+  <si>
+    <t>Remplacer les images par du texte</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Learn/Accessibility/HTML</t>
+  </si>
+  <si>
+    <t>https://openclassrooms.com/fr/courses/5922626-optimisez-le-referencement-de-votre-site-seo-en-ameliorant-ses-performances-techniques/6055231-allegez-les-pages-de-votre-site#/id/r-6055854</t>
+  </si>
+  <si>
+    <t>https://web.dev/uses-responsive-images/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -464,8 +442,19 @@
       <color rgb="FFFF0000"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,6 +470,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,14 +512,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -525,18 +531,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -753,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1000"/>
+  <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" zoomScale="107" zoomScaleNormal="107" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.26953125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -813,265 +828,320 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:26" ht="28.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:26" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="F3" s="13" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="16"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" ht="51.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="16"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="12"/>
+    </row>
+    <row r="15" spans="1:26" ht="61.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>51</v>
       </c>
+      <c r="F17" s="13" t="s">
+        <v>77</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>30</v>
+    <row r="18" spans="1:6" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="114" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>48</v>
-      </c>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
     </row>
-    <row r="7" spans="1:26" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:26" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="98.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="79.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="64.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="9"/>
-    </row>
-    <row r="16" spans="1:26" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2038,14 +2108,24 @@
     <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F16" r:id="rId1" xr:uid="{16C4436A-94BC-4C38-B9B4-B7B82F3FAEC2}"/>
-    <hyperlink ref="F14" r:id="rId2" xr:uid="{32E9D56D-7C4A-461B-9003-BFAB73C9D675}"/>
+    <hyperlink ref="F15" r:id="rId1" xr:uid="{16C4436A-94BC-4C38-B9B4-B7B82F3FAEC2}"/>
+    <hyperlink ref="F13" r:id="rId2" xr:uid="{32E9D56D-7C4A-461B-9003-BFAB73C9D675}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{6A3696EF-6485-465E-9DA3-5A81009A09F1}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{2DA9CC9C-BB4E-4266-89A9-95B843D76018}"/>
+    <hyperlink ref="F12" r:id="rId5" xr:uid="{844C6A54-479A-4500-9350-E5079C850B2A}"/>
+    <hyperlink ref="F8" r:id="rId6" location="accurately-describe-the-pages-content" xr:uid="{3B67C493-9A23-472A-A2EE-FA4D163FA839}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{8B32B5DC-B02B-44BC-A6FC-DF9D74A64D4F}"/>
+    <hyperlink ref="F6" r:id="rId8" xr:uid="{7B87C334-3468-4AD7-A520-6C5FE5C27C97}"/>
+    <hyperlink ref="F16" r:id="rId9" location="/id/r-6055854" xr:uid="{63D0DA0F-FEC3-41A1-A653-6EDE0BF71B1E}"/>
+    <hyperlink ref="F17" r:id="rId10" xr:uid="{E59E8E86-4AE8-40B3-AA1D-CB38598AC06F}"/>
+    <hyperlink ref="F18" r:id="rId11" xr:uid="{A5E74F42-6292-41EF-81E3-FCA0CDA2D1F5}"/>
+    <hyperlink ref="F4" r:id="rId12" xr:uid="{9CFB1D16-63D4-48C3-8C40-FECE9BF5A4DD}"/>
+    <hyperlink ref="F9" r:id="rId13" location="accurately-describe-the-pages-content" xr:uid="{315997CE-2D88-4602-8C28-2E9C2410E788}"/>
+    <hyperlink ref="F10" r:id="rId14" xr:uid="{86F89524-3B2A-4029-A11F-5B60E913F772}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId3"/>
+  <pageSetup orientation="landscape" r:id="rId15"/>
 </worksheet>
 </file>